--- a/xlsx/country_comparison/field_wish_keyword_positive.xlsx
+++ b/xlsx/country_comparison/field_wish_keyword_positive.xlsx
@@ -692,7 +692,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0937851423761699</v>
+        <v>0.0937851423761698</v>
       </c>
       <c r="C5" t="n">
         <v>0.119692884952479</v>
@@ -865,7 +865,7 @@
         <v>0.0634158347187155</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0695055327858496</v>
+        <v>0.0695055327858495</v>
       </c>
       <c r="F9" t="n">
         <v>0.0456843932654672</v>
@@ -900,7 +900,7 @@
         <v>0.0497821474243142</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0404059551521212</v>
+        <v>0.0404059551521213</v>
       </c>
       <c r="D10" t="n">
         <v>0.0131832823871492</v>
@@ -968,7 +968,7 @@
         <v>0.0101325957663516</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0987088316264934</v>
+        <v>0.0987088316264935</v>
       </c>
       <c r="M11" t="n">
         <v>0.0478982590693976</v>
@@ -1149,7 +1149,7 @@
         <v>0.0437435159164682</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0630771316791205</v>
+        <v>0.0630771316791206</v>
       </c>
       <c r="E16" t="n">
         <v>0.0520539546225578</v>
@@ -1518,7 +1518,7 @@
         <v>0.0112349125340201</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0149103637291337</v>
+        <v>0.0149103637291336</v>
       </c>
       <c r="E25" t="n">
         <v>0.00740861159881708</v>
@@ -1574,7 +1574,7 @@
         <v>0.021529667572954</v>
       </c>
       <c r="I26" t="n">
-        <v>0.00975531599905185</v>
+        <v>0.00975531599905184</v>
       </c>
       <c r="J26" t="n">
         <v>0.0203953263136123</v>
@@ -1873,7 +1873,7 @@
         <v>0.0135633880106564</v>
       </c>
       <c r="M33" t="n">
-        <v>0.00581426698189601</v>
+        <v>0.005814266981896</v>
       </c>
     </row>
     <row r="34">
@@ -2268,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0105674370910502</v>
+        <v>0.0105674370910501</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>0.000644655020616375</v>
       </c>
       <c r="C45" t="n">
-        <v>0.000806337501950033</v>
+        <v>0.000806337501950034</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>

--- a/xlsx/country_comparison/field_wish_keyword_positive.xlsx
+++ b/xlsx/country_comparison/field_wish_keyword_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -47,6 +47,9 @@
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
+    <t xml:space="preserve">Russia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
@@ -62,13 +65,16 @@
     <t xml:space="preserve">Family; children; childcare</t>
   </si>
   <si>
+    <t xml:space="preserve">Work; (un)employment; business</t>
+  </si>
+  <si>
     <t xml:space="preserve">War; peace</t>
   </si>
   <si>
     <t xml:space="preserve">Happiness; peace of mind</t>
   </si>
   <si>
-    <t xml:space="preserve">Work; (un)employment; business</t>
+    <t xml:space="preserve">Housing</t>
   </si>
   <si>
     <t xml:space="preserve">Own country referred</t>
@@ -77,33 +83,30 @@
     <t xml:space="preserve">Relationships; love; emotions</t>
   </si>
   <si>
+    <t xml:space="preserve">Car</t>
+  </si>
+  <si>
     <t xml:space="preserve">Stability</t>
   </si>
   <si>
-    <t xml:space="preserve">Housing</t>
+    <t xml:space="preserve">Holiday; travel</t>
   </si>
   <si>
     <t xml:space="preserve">International issues</t>
   </si>
   <si>
-    <t xml:space="preserve">Car</t>
-  </si>
-  <si>
     <t xml:space="preserve">Old age; retirement; ageing society</t>
   </si>
   <si>
-    <t xml:space="preserve">Holiday; travel</t>
-  </si>
-  <si>
     <t xml:space="preserve">Time; more free time</t>
   </si>
   <si>
+    <t xml:space="preserve">Nothing; don't know; empty</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tax system; welfare benefits; public services</t>
   </si>
   <si>
-    <t xml:space="preserve">Nothing; don't know; empty</t>
-  </si>
-  <si>
     <t xml:space="preserve">Economy</t>
   </si>
   <si>
@@ -113,6 +116,9 @@
     <t xml:space="preserve">Wage</t>
   </si>
   <si>
+    <t xml:space="preserve">Education</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rights; democracy; freedom; slavery</t>
   </si>
   <si>
@@ -122,15 +128,12 @@
     <t xml:space="preserve">Environment; climate change</t>
   </si>
   <si>
-    <t xml:space="preserve">Education</t>
+    <t xml:space="preserve">Millionaire; billionaire</t>
   </si>
   <si>
     <t xml:space="preserve">Politics</t>
   </si>
   <si>
-    <t xml:space="preserve">Millionaire; billionaire</t>
-  </si>
-  <si>
     <t xml:space="preserve">Inflation; cost of living</t>
   </si>
   <si>
@@ -143,13 +146,16 @@
     <t xml:space="preserve">Poverty; inequality</t>
   </si>
   <si>
+    <t xml:space="preserve">Stock; investment</t>
+  </si>
+  <si>
     <t xml:space="preserve">Trump</t>
   </si>
   <si>
     <t xml:space="preserve">Discrimination; gender inequality; racism; LGBT</t>
   </si>
   <si>
-    <t xml:space="preserve">Stock; investment</t>
+    <t xml:space="preserve">Youth</t>
   </si>
   <si>
     <t xml:space="preserve">Birthrate</t>
@@ -159,9 +165,6 @@
   </si>
   <si>
     <t xml:space="preserve">Religion; sin; God</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Youth</t>
   </si>
   <si>
     <t xml:space="preserve">Sport</t>
@@ -563,710 +566,764 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.24708961174993</v>
+        <v>0.233760443124309</v>
       </c>
       <c r="C2" t="n">
         <v>0.208983339829176</v>
       </c>
       <c r="D2" t="n">
-        <v>0.244653697384436</v>
+        <v>0.251422037623852</v>
       </c>
       <c r="E2" t="n">
-        <v>0.194480039743379</v>
+        <v>0.185481588976676</v>
       </c>
       <c r="F2" t="n">
-        <v>0.253452419597203</v>
+        <v>0.250840402759836</v>
       </c>
       <c r="G2" t="n">
-        <v>0.199041515872923</v>
+        <v>0.228444988624615</v>
       </c>
       <c r="H2" t="n">
-        <v>0.195795928411841</v>
+        <v>0.199394997762527</v>
       </c>
       <c r="I2" t="n">
-        <v>0.162930917043128</v>
+        <v>0.160435948937741</v>
       </c>
       <c r="J2" t="n">
-        <v>0.20302979414671</v>
+        <v>0.208049815941273</v>
       </c>
       <c r="K2" t="n">
-        <v>0.255973534066159</v>
+        <v>0.259723011700984</v>
       </c>
       <c r="L2" t="n">
-        <v>0.280750667843907</v>
+        <v>0.158684125132841</v>
       </c>
       <c r="M2" t="n">
-        <v>0.284815202142176</v>
+        <v>0.292167758026044</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.287164912812032</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.189263591063482</v>
+        <v>0.184580276588182</v>
       </c>
       <c r="C3" t="n">
         <v>0.242094630533241</v>
       </c>
       <c r="D3" t="n">
-        <v>0.183525282486809</v>
+        <v>0.178758728737167</v>
       </c>
       <c r="E3" t="n">
-        <v>0.320470465922409</v>
+        <v>0.335398615311956</v>
       </c>
       <c r="F3" t="n">
-        <v>0.198603019831807</v>
+        <v>0.201516248327246</v>
       </c>
       <c r="G3" t="n">
-        <v>0.16141732566279</v>
+        <v>0.157661098281705</v>
       </c>
       <c r="H3" t="n">
-        <v>0.263435769745683</v>
+        <v>0.266322790064556</v>
       </c>
       <c r="I3" t="n">
-        <v>0.267840204358419</v>
+        <v>0.274951637473209</v>
       </c>
       <c r="J3" t="n">
-        <v>0.28848610073053</v>
+        <v>0.277776476567708</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0920540793355164</v>
+        <v>0.090547201511279</v>
       </c>
       <c r="L3" t="n">
-        <v>0.039947674885976</v>
+        <v>0.160228066294535</v>
       </c>
       <c r="M3" t="n">
-        <v>0.181836128314003</v>
+        <v>0.0360502227850027</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.18156306998512</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.145009296050195</v>
+        <v>0.137153946749121</v>
       </c>
       <c r="C4" t="n">
         <v>0.1164624569895</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0736966218904746</v>
+        <v>0.0659099447022324</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0900258090293653</v>
+        <v>0.0932997162096306</v>
       </c>
       <c r="F4" t="n">
-        <v>0.101703361600127</v>
+        <v>0.101517609707548</v>
       </c>
       <c r="G4" t="n">
-        <v>0.113723538405461</v>
+        <v>0.0974230209609555</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0988733109236578</v>
+        <v>0.100198896834841</v>
       </c>
       <c r="I4" t="n">
-        <v>0.243800778494482</v>
+        <v>0.24014639451363</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0403260486887223</v>
+        <v>0.0416211482544503</v>
       </c>
       <c r="K4" t="n">
-        <v>0.115660695762263</v>
+        <v>0.114982909484109</v>
       </c>
       <c r="L4" t="n">
-        <v>0.139649540931162</v>
+        <v>0.0984551140638091</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1909267300373</v>
+        <v>0.146212149397534</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.191892688479848</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0937851423761698</v>
+        <v>0.084353782251185</v>
       </c>
       <c r="C5" t="n">
-        <v>0.119692884952479</v>
+        <v>0.0727783215592277</v>
       </c>
       <c r="D5" t="n">
-        <v>0.110100906578098</v>
+        <v>0.0880785199815451</v>
       </c>
       <c r="E5" t="n">
-        <v>0.167040869838569</v>
+        <v>0.0317171565454335</v>
       </c>
       <c r="F5" t="n">
-        <v>0.109203533530616</v>
+        <v>0.133988538562726</v>
       </c>
       <c r="G5" t="n">
-        <v>0.18636935622137</v>
+        <v>0.0752475405787194</v>
       </c>
       <c r="H5" t="n">
-        <v>0.110844862679216</v>
+        <v>0.0711070507844494</v>
       </c>
       <c r="I5" t="n">
-        <v>0.051199106340684</v>
+        <v>0.0634853833819309</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0709291426777961</v>
+        <v>0.0411267051648153</v>
       </c>
       <c r="K5" t="n">
-        <v>0.102981201664867</v>
+        <v>0.0259653063737202</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0294178656098196</v>
+        <v>0.111065799462133</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0664459813724081</v>
+        <v>0.137301012607071</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.102858404800157</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0892869589925111</v>
+        <v>0.0829899950245594</v>
       </c>
       <c r="C6" t="n">
-        <v>0.10164585459231</v>
+        <v>0.119692884952479</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0729430032157726</v>
+        <v>0.110892961923112</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0710450104542969</v>
+        <v>0.174050901420575</v>
       </c>
       <c r="F6" t="n">
-        <v>0.166943929804274</v>
+        <v>0.10998394533063</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0167601387840247</v>
+        <v>0.159148980343474</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0809291515783538</v>
+        <v>0.0995418867046189</v>
       </c>
       <c r="I6" t="n">
-        <v>0.192800951083316</v>
+        <v>0.0538742666622769</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0397209602644164</v>
+        <v>0.0716880903472997</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0289100489287121</v>
+        <v>0.103909671535871</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0416311316118326</v>
+        <v>0.0222833178321532</v>
       </c>
       <c r="M6" t="n">
-        <v>0.103962197171205</v>
+        <v>0.0323354264103882</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.0666326856594116</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0794895206164977</v>
+        <v>0.0808121681547245</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0727783215592277</v>
+        <v>0.10164585459231</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0814001536535418</v>
+        <v>0.0759655287453619</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0398283190845582</v>
+        <v>0.0742267995369443</v>
       </c>
       <c r="F7" t="n">
-        <v>0.129369699849655</v>
+        <v>0.163607386178025</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0649358054804962</v>
+        <v>0.021734179259654</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0716117223690122</v>
+        <v>0.0707763255873357</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0646561181116051</v>
+        <v>0.184617338091134</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0471026818387323</v>
+        <v>0.0383959247694229</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0243282315654699</v>
+        <v>0.0292732564939353</v>
       </c>
       <c r="L7" t="n">
-        <v>0.142229893040489</v>
+        <v>0.0356238433285093</v>
       </c>
       <c r="M7" t="n">
-        <v>0.102798168628221</v>
+        <v>0.0409347272038756</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.103904168031517</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0665422309891155</v>
+        <v>0.0631170330730648</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0652719902982448</v>
+        <v>0.0476685856370099</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0997648378514542</v>
+        <v>0.0340742635592012</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0636738455287573</v>
+        <v>0.0193507538024994</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03535099509886</v>
+        <v>0.0774141206041391</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0779444425442608</v>
+        <v>0.113886133260175</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0332005639978842</v>
+        <v>0.0544941051649808</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0750275840931942</v>
+        <v>0.0307895581600288</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0502005583529715</v>
+        <v>0.0202748447988882</v>
       </c>
       <c r="K8" t="n">
-        <v>0.120388961924934</v>
+        <v>0.0094469191623279</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0301859722842576</v>
+        <v>0.170749751737611</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0503520633193067</v>
+        <v>0.104490496964041</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.046900194796565</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0542115534197668</v>
+        <v>0.0612962818070401</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0485911860477882</v>
+        <v>0.0652719902982448</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0634158347187155</v>
+        <v>0.0901502953642275</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0695055327858495</v>
+        <v>0.0591238957673601</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0456843932654672</v>
+        <v>0.0379981266134609</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0137248606959636</v>
+        <v>0.0792007524455487</v>
       </c>
       <c r="H9" t="n">
-        <v>0.030688087872323</v>
+        <v>0.0292682036905793</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0450489707592648</v>
+        <v>0.0823354022526226</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0166765555134</v>
+        <v>0.0558419857856488</v>
       </c>
       <c r="K9" t="n">
-        <v>0.00617903699015851</v>
+        <v>0.121600785092362</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0327749973912947</v>
+        <v>0.0314300865168493</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0823258021174616</v>
+        <v>0.0300173839863321</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.0502778800155476</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0497821474243142</v>
+        <v>0.0497152809919924</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0404059551521213</v>
+        <v>0.0485911860477882</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0131832823871492</v>
+        <v>0.0601028986479521</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0431518056534583</v>
+        <v>0.0785691396570497</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0447565387371381</v>
+        <v>0.0408839705702096</v>
       </c>
       <c r="G10" t="n">
-        <v>0.035640023850252</v>
+        <v>0.0100446539694284</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0797055786643535</v>
+        <v>0.0385340042814857</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0367327582581868</v>
+        <v>0.0401625740051086</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0360269521872625</v>
+        <v>0.0176125499973011</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0945831100479528</v>
+        <v>0.00619589782350638</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0585379154078347</v>
+        <v>0.026543235544574</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0419612782596967</v>
+        <v>0.0227835999583907</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.082775190046422</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0441773742528965</v>
+        <v>0.0480124758365312</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0476685856370099</v>
+        <v>0.0251828876686502</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0324471944771396</v>
+        <v>0.0351115339469986</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0256419773299521</v>
+        <v>0.0262005871154768</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0725686699433594</v>
+        <v>0.0107316543057608</v>
       </c>
       <c r="G11" t="n">
-        <v>0.111050684334386</v>
+        <v>0.0707331981904777</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0559722564169816</v>
+        <v>0.00397548393721971</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0322024137808168</v>
+        <v>0.0143212228422458</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0234600046965621</v>
+        <v>0.00699628764714469</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0101325957663516</v>
+        <v>0.00359297765250391</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0987088316264935</v>
+        <v>0.0803664274817163</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0478982590693976</v>
+        <v>0.0594771820437783</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.0751852672219763</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" t="n">
-        <v>0.044126093022373</v>
+        <v>0.0465675682829627</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0429767805718837</v>
+        <v>0.0404059551521212</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0550484755615179</v>
+        <v>0.0100569321530853</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0538942401892334</v>
+        <v>0.0418226383464252</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0279151205480285</v>
+        <v>0.0433420234585667</v>
       </c>
       <c r="G12" t="n">
-        <v>0.028205601907046</v>
+        <v>0.0376013533403636</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0310948819347005</v>
+        <v>0.0615913683577736</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0455979853104116</v>
+        <v>0.0361501976127267</v>
       </c>
       <c r="J12" t="n">
-        <v>0.04588853260343</v>
+        <v>0.0380389493378621</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0602467469119065</v>
+        <v>0.0945066999579795</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0360890628245527</v>
+        <v>0.026992081818084</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0398818511479983</v>
+        <v>0.0548626667541238</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.0416879892922993</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0418093181264026</v>
+        <v>0.0454138161777159</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0251828876686502</v>
+        <v>0.0431042379708644</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0360126811251978</v>
+        <v>0.0325298979163579</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0230284023692185</v>
+        <v>0.0321768905881264</v>
       </c>
       <c r="F13" t="n">
-        <v>0.011979976584738</v>
+        <v>0.058395659830401</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0752261486333759</v>
+        <v>0.133076618460746</v>
       </c>
       <c r="H13" t="n">
-        <v>0.00721794227164289</v>
+        <v>0.0169621111910981</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0153222396074543</v>
+        <v>0.0245632235067994</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0061236449486937</v>
+        <v>0.0125826033549703</v>
       </c>
       <c r="K13" t="n">
-        <v>0.00408521423748507</v>
+        <v>0.0113063188359543</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0588216902188374</v>
+        <v>0.0731243548086367</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0746696594101645</v>
+        <v>0.0123930038605942</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.0538426891258306</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0417520510134511</v>
+        <v>0.0389702865628882</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0197668114715449</v>
+        <v>0.0429767805718837</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0192826082140477</v>
+        <v>0.0503568333315132</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0270124795465584</v>
+        <v>0.0523950581662993</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0178397880792664</v>
+        <v>0.0286585775686598</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0179546003513797</v>
+        <v>0.0262754663433952</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0120209495890767</v>
+        <v>0.0238722596243908</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0191016455827103</v>
+        <v>0.0486054400418891</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0223335936575232</v>
+        <v>0.0462392886412357</v>
       </c>
       <c r="K14" t="n">
-        <v>0.08169824434147</v>
+        <v>0.0606865098494722</v>
       </c>
       <c r="L14" t="n">
-        <v>0.00995673002442137</v>
+        <v>0.00967051743345636</v>
       </c>
       <c r="M14" t="n">
-        <v>0.055024416795664</v>
+        <v>0.0309120222695422</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.0392448356015321</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0410272239684684</v>
+        <v>0.0360051735739374</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0431042379708644</v>
+        <v>0.0197668114715449</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0272629496769397</v>
+        <v>0.0180151877197586</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0331321224821585</v>
+        <v>0.0256341173053098</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0602659504620971</v>
+        <v>0.0209471892798605</v>
       </c>
       <c r="G15" t="n">
-        <v>0.14332849373137</v>
+        <v>0.0154268465461036</v>
       </c>
       <c r="H15" t="n">
-        <v>0.019754358365911</v>
+        <v>0.00966652103283776</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0234695750630954</v>
+        <v>0.0155664777085532</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0133556305842889</v>
+        <v>0.021716482304415</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0118789635493251</v>
+        <v>0.0798876364073617</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0138580230342161</v>
+        <v>0.00466364579848074</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0531327001247374</v>
+        <v>0.00961438797874076</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.0555388947008991</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0342810859672379</v>
+        <v>0.0304962040185799</v>
       </c>
       <c r="C16" t="n">
         <v>0.0437435159164682</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0630771316791206</v>
+        <v>0.0670908677387075</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0520539546225578</v>
+        <v>0.0464866453166453</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0809825046572169</v>
+        <v>0.0835936231849692</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0162694621948644</v>
+        <v>0.0136230979471603</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0124663435502622</v>
+        <v>0.00752053356835371</v>
       </c>
       <c r="I16" t="n">
-        <v>0.018533439333199</v>
+        <v>0.0224219389725132</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0295658700971422</v>
+        <v>0.0237587016333955</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0118885384440688</v>
+        <v>0.0124207189438449</v>
       </c>
       <c r="L16" t="n">
-        <v>0.00516993508221687</v>
+        <v>0.00963394504204112</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0351957570656648</v>
+        <v>0.0049431946367433</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.0334930749259549</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0320561975880989</v>
+        <v>0.0291738002840389</v>
       </c>
       <c r="C17" t="n">
-        <v>0.019002463212224</v>
+        <v>0.0417523429762424</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0172146149029161</v>
+        <v>0.0613097504120073</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0274288762013272</v>
+        <v>0.0293747197290746</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0260174432642356</v>
+        <v>0.0440307432744723</v>
       </c>
       <c r="G17" t="n">
-        <v>0.00836841888463836</v>
+        <v>0.0206390881121839</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0148830550299359</v>
+        <v>0.0523358869443692</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0128724372127323</v>
+        <v>0.0356011404281971</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0177249524249816</v>
+        <v>0.0168466018168222</v>
       </c>
       <c r="K17" t="n">
-        <v>0.140807749825153</v>
+        <v>0.0604541058808636</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>0.0197219358507719</v>
       </c>
       <c r="M17" t="n">
-        <v>0.00730901752849404</v>
+        <v>0.00556032695371243</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.00805571610362564</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0304821676457091</v>
+        <v>0.0270442523219365</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0417523429762424</v>
+        <v>0.019002463212224</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0574639015526349</v>
+        <v>0.0151832997999181</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0359310519403292</v>
+        <v>0.023191759229925</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0423050740725518</v>
+        <v>0.0297210747154522</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0200540045333317</v>
+        <v>0.00622476756360903</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0558877743010948</v>
+        <v>0.0175603816402979</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0364391537356754</v>
+        <v>0.0107248839700023</v>
       </c>
       <c r="J18" t="n">
-        <v>0.014003944202303</v>
+        <v>0.016992145628732</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0579246817692461</v>
+        <v>0.138118573536043</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0113252760777856</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0082690731807798</v>
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.00684225270008222</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0292927329567031</v>
+        <v>0.0253473353172592</v>
       </c>
       <c r="C19" t="n">
         <v>0.0216109401589785</v>
@@ -1275,39 +1332,42 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0233005364131108</v>
+        <v>0.0207381746506292</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0499436301690706</v>
+        <v>0.0522468281225449</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0365232316735295</v>
+        <v>0.0367554971853317</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0208001488055649</v>
+        <v>0.017221202382292</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0119553758213859</v>
+        <v>0.00971888770218623</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0636146046819548</v>
+        <v>0.0638445608059056</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0108887139781621</v>
+        <v>0.00329109661641107</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0265559567977894</v>
+        <v>0.00887942948766969</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.0260930967425598</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0273376367957686</v>
+        <v>0.0245643577445253</v>
       </c>
       <c r="C20" t="n">
         <v>0.0171707459780472</v>
@@ -1316,39 +1376,42 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0206606997517263</v>
+        <v>0.0208445481382204</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0176174810766706</v>
+        <v>0.0191146356793121</v>
       </c>
       <c r="G20" t="n">
-        <v>0.00863896003822685</v>
+        <v>0.0106046973885487</v>
       </c>
       <c r="H20" t="n">
-        <v>0.00618790643782495</v>
+        <v>0.00459492056045402</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0432106801155951</v>
+        <v>0.0471385490840197</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0355660381917928</v>
+        <v>0.0338477868500563</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0509275211962585</v>
+        <v>0.0494194055868064</v>
       </c>
       <c r="L20" t="n">
-        <v>0.00201467710360449</v>
+        <v>0.00833099943956224</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0325557782519816</v>
+        <v>0.00251311602549374</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.0327810328254048</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0164036382616676</v>
+        <v>0.0151680284711804</v>
       </c>
       <c r="C21" t="n">
         <v>0.0143585728241144</v>
@@ -1357,285 +1420,306 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0255553247030175</v>
+        <v>0.0209822158768577</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0309396553178281</v>
+        <v>0.0332205271981589</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0248084535589645</v>
+        <v>0.0257947414177069</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0192084536512005</v>
+        <v>0.0218118876959924</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0470538997830023</v>
+        <v>0.0499869278185452</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0036544968458406</v>
+        <v>0.00824976130652516</v>
       </c>
       <c r="M21" t="n">
-        <v>0.00790014608295045</v>
+        <v>0.00465671981634606</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.00778930191669339</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0159176786294496</v>
+        <v>0.0139658566650852</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0153831275029932</v>
+        <v>0.0112349125340201</v>
       </c>
       <c r="D22" t="n">
-        <v>0.00863517511484341</v>
+        <v>0.0142231293290274</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0233407849849001</v>
+        <v>0.00579449059375162</v>
       </c>
       <c r="F22" t="n">
-        <v>0.00381956627634631</v>
+        <v>0.00455502268022635</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0224326432123498</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.00425192160277293</v>
+        <v>0.0131606756960865</v>
       </c>
       <c r="I22" t="n">
-        <v>0.022568999818706</v>
+        <v>0.0227252550253969</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0504403651349533</v>
+        <v>0.0125529258506322</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0119683326440916</v>
+        <v>0.0154402117894365</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0232560608520134</v>
+        <v>0.0251718951499486</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0173477399342901</v>
+        <v>0.0182002347183531</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.0109634873124604</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0152009950999286</v>
+        <v>0.0134984954976159</v>
       </c>
       <c r="C23" t="n">
-        <v>0.00847999659747867</v>
+        <v>0.0153831275029932</v>
       </c>
       <c r="D23" t="n">
-        <v>0.01038135422972</v>
+        <v>0.00824913828661967</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0107105619972414</v>
+        <v>0.0238429451809305</v>
       </c>
       <c r="F23" t="n">
-        <v>0.011703022544397</v>
+        <v>0.00290851407926281</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.0242275614688496</v>
       </c>
       <c r="H23" t="n">
-        <v>0.00647990273512948</v>
+        <v>0.00632094034357712</v>
       </c>
       <c r="I23" t="n">
-        <v>0.00568029471085157</v>
+        <v>0.0216535604795418</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0159538206024477</v>
+        <v>0.0552686090193986</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0223277801296532</v>
+        <v>0.0121222725798063</v>
       </c>
       <c r="L23" t="n">
-        <v>0.000847711750666023</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0217854659481811</v>
+        <v>0.01769002070005</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.0162899969176316</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0124240051301176</v>
+        <v>0.0128342812254189</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0158280599781818</v>
+        <v>0.00847999659747867</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0143046998942118</v>
+        <v>0.0101752609621526</v>
       </c>
       <c r="E24" t="n">
-        <v>0.032990019291228</v>
+        <v>0.00986675644931393</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0102174087951831</v>
+        <v>0.0122862578082878</v>
       </c>
       <c r="G24" t="n">
-        <v>0.00886914804769541</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>0.0064841089025686</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0123861185857712</v>
+        <v>0.00596015588574292</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0405626726528111</v>
+        <v>0.0134201907187844</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0225793830801669</v>
+        <v>0.021897203164575</v>
       </c>
       <c r="L24" t="n">
-        <v>0.00227223461078527</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0054315548484266</v>
+        <v>0.000886524822695035</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.0224794450153261</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0119385241554525</v>
+        <v>0.0110577862573804</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0112349125340201</v>
+        <v>0.0158280599781818</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0149103637291336</v>
+        <v>0.0177756083076665</v>
       </c>
       <c r="E25" t="n">
-        <v>0.00740861159881708</v>
+        <v>0.0307037871021369</v>
       </c>
       <c r="F25" t="n">
-        <v>0.00424250347115749</v>
+        <v>0.0086539955902881</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.00821056373241131</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0120493876918629</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0244549396735191</v>
+        <v>0.0117935224780032</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0121388652660837</v>
+        <v>0.0418854669113887</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0161807681385519</v>
+        <v>0.0228912895651289</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0164133833411182</v>
+        <v>0.00426243392687933</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0105937948926139</v>
+        <v>0.00215398338783978</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.00606440155352157</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0101511772126781</v>
+        <v>0.0098395867630424</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0120085002702837</v>
+        <v>0.00730735771794554</v>
       </c>
       <c r="D26" t="n">
-        <v>0.00888436257802906</v>
+        <v>0.0144310918034623</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0152933824979063</v>
+        <v>0.00282824466173986</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0056347013434544</v>
+        <v>0.00404181198735081</v>
       </c>
       <c r="G26" t="n">
-        <v>0.00940707384627505</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.021529667572954</v>
+        <v>0.00300939074578851</v>
       </c>
       <c r="I26" t="n">
-        <v>0.00975531599905184</v>
+        <v>0.00815308456063513</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0203953263136123</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0282029622055563</v>
+        <v>0.00201134173801894</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>0.00995930967006925</v>
       </c>
       <c r="M26" t="n">
-        <v>0.00181951201909547</v>
+        <v>0.107640600288537</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.00596845207651517</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" t="n">
-        <v>0.00971396710149537</v>
+        <v>0.00858599823887651</v>
       </c>
       <c r="C27" t="n">
-        <v>0.00730735771794554</v>
+        <v>0.0120085002702837</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0180694395821514</v>
+        <v>0.00684692911961493</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0044264860694164</v>
+        <v>0.0148004452970157</v>
       </c>
       <c r="F27" t="n">
-        <v>0.00514193783277134</v>
+        <v>0.00494941073202395</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.00859409748294027</v>
       </c>
       <c r="H27" t="n">
-        <v>0.00604722649973883</v>
+        <v>0.0144116607868814</v>
       </c>
       <c r="I27" t="n">
-        <v>0.00701663147921983</v>
+        <v>0.0100961864157348</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.0193221079537148</v>
       </c>
       <c r="K27" t="n">
-        <v>0.00201454467668897</v>
+        <v>0.0263623151818554</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0990899109588088</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0.00613327385880714</v>
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.00168281523764056</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" t="n">
-        <v>0.00675863186635797</v>
+        <v>0.00570895018824322</v>
       </c>
       <c r="C28" t="n">
         <v>0.0047113734564084</v>
@@ -1644,48 +1728,51 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.00342246815724177</v>
+        <v>0.00243550795879202</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0124717406363304</v>
+        <v>0.015594224240066</v>
       </c>
       <c r="G28" t="n">
-        <v>0.00757454751628887</v>
+        <v>0.0122169917352836</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.00482368709110888</v>
+        <v>0.00416042284652185</v>
       </c>
       <c r="J28" t="n">
-        <v>0.0183485092093717</v>
+        <v>0.0173787328324557</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0254268386433741</v>
+        <v>0.0254523927754005</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.00241614805522486</v>
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.0026194120866425</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" t="n">
-        <v>0.00650610439510638</v>
+        <v>0.00549203598106098</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0081577167352701</v>
+        <v>0.00815771673527011</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0230625774946326</v>
+        <v>0.0195029334217791</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1697,42 +1784,45 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0153632728455937</v>
+        <v>0.0148692341801712</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0143480987612201</v>
+        <v>0.016731383713933</v>
       </c>
       <c r="K29" t="n">
-        <v>0.00408366921677663</v>
+        <v>0.00415077955021145</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0.00622245946675986</v>
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.00624438679145326</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" t="n">
-        <v>0.00621097705253459</v>
+        <v>0.00523552713575767</v>
       </c>
       <c r="C30" t="n">
         <v>0.00357602646822307</v>
       </c>
       <c r="D30" t="n">
-        <v>0.00416552116728006</v>
+        <v>0.00546344682065765</v>
       </c>
       <c r="E30" t="n">
-        <v>0.00427296953256535</v>
+        <v>0.00450401614046821</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0056347013434544</v>
+        <v>0.00494941073202395</v>
       </c>
       <c r="G30" t="n">
-        <v>0.00937927698737093</v>
+        <v>0.00704187449853556</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1750,24 +1840,27 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0124579269575827</v>
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.0129682565478248</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0059869050976681</v>
+        <v>0.00505620652944793</v>
       </c>
       <c r="C31" t="n">
         <v>0.00825710728011824</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0140898589487359</v>
+        <v>0.0151406017211934</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0202567680951563</v>
+        <v>0.0199098444675518</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1779,39 +1872,42 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0.00392358758161051</v>
+        <v>0.00422694554100447</v>
       </c>
       <c r="J31" t="n">
-        <v>0.00967342119061264</v>
+        <v>0.0101162415308806</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0102303969461356</v>
+        <v>0.00970563425431229</v>
       </c>
       <c r="L31" t="n">
-        <v>0.00599760643567169</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0.00161531143175729</v>
+        <v>0.00476906523058334</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.00136743724947919</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" t="n">
-        <v>0.00502332539830619</v>
+        <v>0.00429870408313966</v>
       </c>
       <c r="C32" t="n">
-        <v>0.000868528082637445</v>
+        <v>0.00165363353044936</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>0.00368109913623455</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0056347013434544</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1820,118 +1916,127 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.00363803814986451</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>0.00326630017162232</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>0.00315495951538129</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0124579269575827</v>
+        <v>0.0140651824133964</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.00583554770001014</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B33" t="n">
-        <v>0.00448511044229685</v>
+        <v>0.00423336336627981</v>
       </c>
       <c r="C33" t="n">
-        <v>0.00335493764962435</v>
+        <v>0.000868528082637445</v>
       </c>
       <c r="D33" t="n">
-        <v>0.00416552116728006</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.00359460339298158</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>0.00494941073202395</v>
       </c>
       <c r="G33" t="n">
-        <v>0.00619169422988159</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.00425192160277293</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0216800056010019</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0.00207812954947284</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0135633880106564</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.005814266981896</v>
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.0129682565478248</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B34" t="n">
-        <v>0.00438630071632863</v>
+        <v>0.00378512204091671</v>
       </c>
       <c r="C34" t="n">
-        <v>0.00165363353044936</v>
+        <v>0.00335493764962435</v>
       </c>
       <c r="D34" t="n">
-        <v>0.00495760295039097</v>
+        <v>0.00546344682065765</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>0.00513743931761394</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.00812661283648955</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>0.00632094034357712</v>
       </c>
       <c r="I34" t="n">
-        <v>0.00410458280765479</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>0.0180632783794154</v>
       </c>
       <c r="K34" t="n">
-        <v>0.00382990943255791</v>
+        <v>0.00263556401579406</v>
       </c>
       <c r="L34" t="n">
-        <v>0.0140445600305195</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0.00679966609605136</v>
+        <v>0.0075702428454628</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.00623412938231771</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B35" t="n">
-        <v>0.00363477078817024</v>
+        <v>0.00312796840566223</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>0.00279853809213057</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>0.00352119889355651</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>0.00239789354161153</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -1940,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>0.0124059948953468</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -1949,27 +2054,30 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0243750152249138</v>
+        <v>0.00160526586162996</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>0.00302533195265854</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.00392065850631273</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B36" t="n">
-        <v>0.00339157612521802</v>
+        <v>0.00306685515604495</v>
       </c>
       <c r="C36" t="n">
-        <v>0.00277654683100888</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0047476988841552</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -1978,115 +2086,124 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.00593063439838055</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0075981721492633</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0.00196354097299955</v>
+        <v>0.0245783517519553</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0.00504730269324425</v>
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B37" t="n">
-        <v>0.00338341887084894</v>
+        <v>0.00286481375502025</v>
       </c>
       <c r="C37" t="n">
-        <v>0.00259401930324773</v>
+        <v>0.00277654683100888</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>0.00487069054010598</v>
       </c>
       <c r="E37" t="n">
-        <v>0.00356381867843006</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.00580456485867381</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.00478785534744157</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.00422332107811981</v>
+        <v>0.00619921137098163</v>
       </c>
       <c r="J37" t="n">
-        <v>0.00738771848948024</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>0.00201087839403267</v>
       </c>
       <c r="L37" t="n">
-        <v>0.00905464889768885</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0050641147825581</v>
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.00519034830645228</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0031951435396411</v>
+        <v>0.00285237594687906</v>
       </c>
       <c r="C38" t="n">
-        <v>0.00279853809213057</v>
+        <v>0.00259401930324773</v>
       </c>
       <c r="D38" t="n">
-        <v>0.00471043111664842</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0040021104797777</v>
+        <v>0.0032718469503967</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>0.00511417380371708</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.00727460745697123</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.00373518304083577</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>0.00595453211813817</v>
       </c>
       <c r="K38" t="n">
-        <v>0.00208685383776984</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0.00444493488342195</v>
+        <v>0.0095538429940886</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.00536726795995536</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B39" t="n">
-        <v>0.00237609529244205</v>
+        <v>0.00240078974514208</v>
       </c>
       <c r="C39" t="n">
         <v>0.00145067837738334</v>
@@ -2107,42 +2224,45 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.00871805502878033</v>
+        <v>0.00918745804394336</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0.00198659286402372</v>
+        <v>0.0026224855834855</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>0.00302533195265854</v>
       </c>
       <c r="M39" t="n">
-        <v>0.00387372917655561</v>
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.00415481953051117</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B40" t="n">
-        <v>0.00227742000982728</v>
+        <v>0.00194070496745321</v>
       </c>
       <c r="C40" t="n">
         <v>0.00267480522315377</v>
       </c>
       <c r="D40" t="n">
-        <v>0.00473136917470422</v>
+        <v>0.0080075098469655</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0038618971875801</v>
+        <v>0.00376457405278209</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.00886914804769541</v>
+        <v>0.00821056373241131</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2160,15 +2280,18 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.00296292466552973</v>
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.00272867806732078</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B41" t="n">
-        <v>0.00159674880649893</v>
+        <v>0.00134292297418365</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -2195,21 +2318,24 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0.00192790062950755</v>
+        <v>0.00174709977982922</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0.00351346275538122</v>
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.00321551786169957</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0013092627546557</v>
+        <v>0.0010999323077837</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -2242,15 +2368,18 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0.00351346275538122</v>
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.00321551786169957</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B43" t="n">
-        <v>0.00112281840233815</v>
+        <v>0.00094861135266742</v>
       </c>
       <c r="C43" t="n">
         <v>0.00140525180390361</v>
@@ -2268,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0105674370910501</v>
+        <v>0.00780431692742383</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -2283,15 +2412,18 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.00135894829930269</v>
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.00125625950979905</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B44" t="n">
-        <v>0.000664014236143147</v>
+        <v>0.000560788456998816</v>
       </c>
       <c r="C44" t="n">
         <v>0.00085047085081401</v>
@@ -2300,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0037447330390152</v>
+        <v>0.00430599846431602</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -2318,21 +2450,24 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0.00195114917901055</v>
+        <v>0.00210656950338318</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B45" t="n">
-        <v>0.000644655020616375</v>
+        <v>0.000544452771078309</v>
       </c>
       <c r="C45" t="n">
         <v>0.000806337501950034</v>
@@ -2341,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0035504082018322</v>
+        <v>0.00261349470943398</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -2359,21 +2494,24 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0.00195114917901055</v>
+        <v>0.00210656950338318</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B46" t="n">
-        <v>0.000414613341077934</v>
+        <v>0.000349858872583667</v>
       </c>
       <c r="C46" t="n">
         <v>0.000945197143972394</v>
@@ -2394,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.00568029471085157</v>
+        <v>0.00596015588574292</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -2406,12 +2544,15 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -2447,12 +2588,15 @@
         <v>0</v>
       </c>
       <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B48" t="n">
         <v>0</v>
@@ -2488,6 +2632,9 @@
         <v>0</v>
       </c>
       <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
         <v>0</v>
       </c>
     </row>

--- a/xlsx/country_comparison/field_wish_keyword_positive.xlsx
+++ b/xlsx/country_comparison/field_wish_keyword_positive.xlsx
@@ -575,7 +575,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.233760443124309</v>
+        <v>0.233957875092011</v>
       </c>
       <c r="C2" t="n">
         <v>0.208983339829176</v>
@@ -605,7 +605,7 @@
         <v>0.259723011700984</v>
       </c>
       <c r="L2" t="n">
-        <v>0.158684125132841</v>
+        <v>0.159027269012016</v>
       </c>
       <c r="M2" t="n">
         <v>0.292167758026044</v>
@@ -619,7 +619,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.184580276588182</v>
+        <v>0.184732159614952</v>
       </c>
       <c r="C3" t="n">
         <v>0.242094630533241</v>
@@ -649,7 +649,7 @@
         <v>0.090547201511279</v>
       </c>
       <c r="L3" t="n">
-        <v>0.160228066294535</v>
+        <v>0.160999254698774</v>
       </c>
       <c r="M3" t="n">
         <v>0.0360502227850027</v>
@@ -663,7 +663,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.137153946749121</v>
+        <v>0.137268817066277</v>
       </c>
       <c r="C4" t="n">
         <v>0.1164624569895</v>
@@ -693,7 +693,7 @@
         <v>0.114982909484109</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0984551140638091</v>
+        <v>0.0995004542486578</v>
       </c>
       <c r="M4" t="n">
         <v>0.146212149397534</v>
@@ -707,7 +707,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.084353782251185</v>
+        <v>0.0845559289066396</v>
       </c>
       <c r="C5" t="n">
         <v>0.0727783215592277</v>
@@ -737,7 +737,7 @@
         <v>0.0259653063737202</v>
       </c>
       <c r="L5" t="n">
-        <v>0.111065799462133</v>
+        <v>0.112984257999174</v>
       </c>
       <c r="M5" t="n">
         <v>0.137301012607071</v>
@@ -751,7 +751,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0829899950245594</v>
+        <v>0.0830131488788158</v>
       </c>
       <c r="C6" t="n">
         <v>0.119692884952479</v>
@@ -781,7 +781,7 @@
         <v>0.103909671535871</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0222833178321532</v>
+        <v>0.0220159022745707</v>
       </c>
       <c r="M6" t="n">
         <v>0.0323354264103882</v>
@@ -795,7 +795,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0808121681547245</v>
+        <v>0.0808585070740223</v>
       </c>
       <c r="C7" t="n">
         <v>0.10164585459231</v>
@@ -825,7 +825,7 @@
         <v>0.0292732564939353</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0356238433285093</v>
+        <v>0.0358640826762174</v>
       </c>
       <c r="M7" t="n">
         <v>0.0409347272038756</v>
@@ -839,7 +839,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0631170330730648</v>
+        <v>0.0630038949854876</v>
       </c>
       <c r="C8" t="n">
         <v>0.0476685856370099</v>
@@ -869,7 +869,7 @@
         <v>0.0094469191623279</v>
       </c>
       <c r="L8" t="n">
-        <v>0.170749751737611</v>
+        <v>0.171432764667175</v>
       </c>
       <c r="M8" t="n">
         <v>0.104490496964041</v>
@@ -883,7 +883,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0612962818070401</v>
+        <v>0.0613299944261223</v>
       </c>
       <c r="C9" t="n">
         <v>0.0652719902982448</v>
@@ -913,7 +913,7 @@
         <v>0.121600785092362</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0314300865168493</v>
+        <v>0.0316867971172585</v>
       </c>
       <c r="M9" t="n">
         <v>0.0300173839863321</v>
@@ -927,7 +927,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0497152809919924</v>
+        <v>0.0497643477597684</v>
       </c>
       <c r="C10" t="n">
         <v>0.0485911860477882</v>
@@ -957,7 +957,7 @@
         <v>0.00619589782350638</v>
       </c>
       <c r="L10" t="n">
-        <v>0.026543235544574</v>
+        <v>0.0266944176624014</v>
       </c>
       <c r="M10" t="n">
         <v>0.0227835999583907</v>
@@ -971,7 +971,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0480124758365312</v>
+        <v>0.0478467853097977</v>
       </c>
       <c r="C11" t="n">
         <v>0.0251828876686502</v>
@@ -1001,7 +1001,7 @@
         <v>0.00359297765250391</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0803664274817163</v>
+        <v>0.0802356163222947</v>
       </c>
       <c r="M11" t="n">
         <v>0.0594771820437783</v>
@@ -1015,10 +1015,10 @@
         <v>24</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0465675682829627</v>
+        <v>0.0466038486602128</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0404059551521212</v>
+        <v>0.0404059551521213</v>
       </c>
       <c r="D12" t="n">
         <v>0.0100569321530853</v>
@@ -1045,7 +1045,7 @@
         <v>0.0945066999579795</v>
       </c>
       <c r="L12" t="n">
-        <v>0.026992081818084</v>
+        <v>0.0271616056354358</v>
       </c>
       <c r="M12" t="n">
         <v>0.0548626667541238</v>
@@ -1059,7 +1059,7 @@
         <v>25</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0454138161777159</v>
+        <v>0.0454732660062481</v>
       </c>
       <c r="C13" t="n">
         <v>0.0431042379708644</v>
@@ -1089,7 +1089,7 @@
         <v>0.0113063188359543</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0731243548086367</v>
+        <v>0.0734570812594495</v>
       </c>
       <c r="M13" t="n">
         <v>0.0123930038605942</v>
@@ -1103,7 +1103,7 @@
         <v>26</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0389702865628882</v>
+        <v>0.0389851485968306</v>
       </c>
       <c r="C14" t="n">
         <v>0.0429767805718837</v>
@@ -1133,7 +1133,7 @@
         <v>0.0606865098494722</v>
       </c>
       <c r="L14" t="n">
-        <v>0.00967051743345636</v>
+        <v>0.00954423539743927</v>
       </c>
       <c r="M14" t="n">
         <v>0.0309120222695422</v>
@@ -1147,7 +1147,7 @@
         <v>27</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0360051735739374</v>
+        <v>0.0360190249742804</v>
       </c>
       <c r="C15" t="n">
         <v>0.0197668114715449</v>
@@ -1177,7 +1177,7 @@
         <v>0.0798876364073617</v>
       </c>
       <c r="L15" t="n">
-        <v>0.00466364579848074</v>
+        <v>0.00456628316348252</v>
       </c>
       <c r="M15" t="n">
         <v>0.00961438797874076</v>
@@ -1191,7 +1191,7 @@
         <v>28</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0304962040185799</v>
+        <v>0.030507749186838</v>
       </c>
       <c r="C16" t="n">
         <v>0.0437435159164682</v>
@@ -1221,7 +1221,7 @@
         <v>0.0124207189438449</v>
       </c>
       <c r="L16" t="n">
-        <v>0.00963394504204112</v>
+        <v>0.00963355059066431</v>
       </c>
       <c r="M16" t="n">
         <v>0.0049431946367433</v>
@@ -1235,7 +1235,7 @@
         <v>29</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0291738002840389</v>
+        <v>0.0292346818162277</v>
       </c>
       <c r="C17" t="n">
         <v>0.0417523429762424</v>
@@ -1265,7 +1265,7 @@
         <v>0.0604541058808636</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0197219358507719</v>
+        <v>0.0201532287504738</v>
       </c>
       <c r="M17" t="n">
         <v>0.00556032695371243</v>
@@ -1279,7 +1279,7 @@
         <v>30</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0270442523219365</v>
+        <v>0.0270562616305732</v>
       </c>
       <c r="C18" t="n">
         <v>0.019002463212224</v>
@@ -1323,7 +1323,7 @@
         <v>31</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0253473353172592</v>
+        <v>0.0253678276396637</v>
       </c>
       <c r="C19" t="n">
         <v>0.0216109401589785</v>
@@ -1353,7 +1353,7 @@
         <v>0.0638445608059056</v>
       </c>
       <c r="L19" t="n">
-        <v>0.00329109661641107</v>
+        <v>0.00333711169364566</v>
       </c>
       <c r="M19" t="n">
         <v>0.00887942948766969</v>
@@ -1367,7 +1367,7 @@
         <v>32</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0245643577445253</v>
+        <v>0.0245717773421271</v>
       </c>
       <c r="C20" t="n">
         <v>0.0171707459780472</v>
@@ -1397,7 +1397,7 @@
         <v>0.0494194055868064</v>
       </c>
       <c r="L20" t="n">
-        <v>0.00833099943956224</v>
+        <v>0.0083090580930966</v>
       </c>
       <c r="M20" t="n">
         <v>0.00251311602549374</v>
@@ -1411,7 +1411,7 @@
         <v>33</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0151680284711804</v>
+        <v>0.0151826768053331</v>
       </c>
       <c r="C21" t="n">
         <v>0.0143585728241144</v>
@@ -1441,7 +1441,7 @@
         <v>0.0499869278185452</v>
       </c>
       <c r="L21" t="n">
-        <v>0.00824976130652516</v>
+        <v>0.00835420991827352</v>
       </c>
       <c r="M21" t="n">
         <v>0.00465671981634606</v>
@@ -1455,7 +1455,7 @@
         <v>34</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0139658566650852</v>
+        <v>0.0139777754783869</v>
       </c>
       <c r="C22" t="n">
         <v>0.0112349125340201</v>
@@ -1485,7 +1485,7 @@
         <v>0.0154402117894365</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0251718951499486</v>
+        <v>0.025197689114508</v>
       </c>
       <c r="M22" t="n">
         <v>0.0182002347183531</v>
@@ -1499,7 +1499,7 @@
         <v>35</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0134984954976159</v>
+        <v>0.0135044896584687</v>
       </c>
       <c r="C23" t="n">
         <v>0.0153831275029932</v>
@@ -1543,7 +1543,7 @@
         <v>36</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0128342812254189</v>
+        <v>0.0128399804343499</v>
       </c>
       <c r="C24" t="n">
         <v>0.00847999659747867</v>
@@ -1587,7 +1587,7 @@
         <v>37</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0110577862573804</v>
+        <v>0.0110647364580991</v>
       </c>
       <c r="C25" t="n">
         <v>0.0158280599781818</v>
@@ -1617,7 +1617,7 @@
         <v>0.0228912895651289</v>
       </c>
       <c r="L25" t="n">
-        <v>0.00426243392687933</v>
+        <v>0.00434346181297911</v>
       </c>
       <c r="M25" t="n">
         <v>0.00215398338783978</v>
@@ -1631,7 +1631,7 @@
         <v>38</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0098395867630424</v>
+        <v>0.00983670629793078</v>
       </c>
       <c r="C26" t="n">
         <v>0.00730735771794554</v>
@@ -1661,7 +1661,7 @@
         <v>0.00201134173801894</v>
       </c>
       <c r="L26" t="n">
-        <v>0.00995930967006925</v>
+        <v>0.00984611258433989</v>
       </c>
       <c r="M26" t="n">
         <v>0.107640600288537</v>
@@ -1675,7 +1675,7 @@
         <v>39</v>
       </c>
       <c r="B27" t="n">
-        <v>0.00858599823887651</v>
+        <v>0.008589810949303</v>
       </c>
       <c r="C27" t="n">
         <v>0.0120085002702837</v>
@@ -1719,7 +1719,7 @@
         <v>40</v>
       </c>
       <c r="B28" t="n">
-        <v>0.00570895018824322</v>
+        <v>0.00571148531267504</v>
       </c>
       <c r="C28" t="n">
         <v>0.0047113734564084</v>
@@ -1763,10 +1763,10 @@
         <v>41</v>
       </c>
       <c r="B29" t="n">
-        <v>0.00549203598106098</v>
+        <v>0.00549447478226557</v>
       </c>
       <c r="C29" t="n">
-        <v>0.00815771673527011</v>
+        <v>0.0081577167352701</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -1807,7 +1807,7 @@
         <v>42</v>
       </c>
       <c r="B30" t="n">
-        <v>0.00523552713575767</v>
+        <v>0.00523785203128447</v>
       </c>
       <c r="C30" t="n">
         <v>0.00357602646822307</v>
@@ -1851,7 +1851,7 @@
         <v>43</v>
       </c>
       <c r="B31" t="n">
-        <v>0.00505620652944793</v>
+        <v>0.00505845179561466</v>
       </c>
       <c r="C31" t="n">
         <v>0.00825710728011824</v>
@@ -1895,7 +1895,7 @@
         <v>44</v>
       </c>
       <c r="B32" t="n">
-        <v>0.00429870408313966</v>
+        <v>0.00429837555609997</v>
       </c>
       <c r="C32" t="n">
         <v>0.00165363353044936</v>
@@ -1925,7 +1925,7 @@
         <v>0.00326630017162232</v>
       </c>
       <c r="L32" t="n">
-        <v>0.00315495951538129</v>
+        <v>0.00316932851813017</v>
       </c>
       <c r="M32" t="n">
         <v>0.0140651824133964</v>
@@ -1939,7 +1939,7 @@
         <v>45</v>
       </c>
       <c r="B33" t="n">
-        <v>0.00423336336627981</v>
+        <v>0.00423524323955682</v>
       </c>
       <c r="C33" t="n">
         <v>0.000868528082637445</v>
@@ -1983,7 +1983,7 @@
         <v>46</v>
       </c>
       <c r="B34" t="n">
-        <v>0.00378512204091671</v>
+        <v>0.00378680286752177</v>
       </c>
       <c r="C34" t="n">
         <v>0.00335493764962435</v>
@@ -2027,7 +2027,7 @@
         <v>47</v>
       </c>
       <c r="B35" t="n">
-        <v>0.00312796840566223</v>
+        <v>0.00313099679008632</v>
       </c>
       <c r="C35" t="n">
         <v>0.00279853809213057</v>
@@ -2057,7 +2057,7 @@
         <v>0.00160526586162996</v>
       </c>
       <c r="L35" t="n">
-        <v>0.00302533195265854</v>
+        <v>0.00311681844657685</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -2071,7 +2071,7 @@
         <v>48</v>
       </c>
       <c r="B36" t="n">
-        <v>0.00306685515604495</v>
+        <v>0.00306821702804918</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -2115,7 +2115,7 @@
         <v>49</v>
       </c>
       <c r="B37" t="n">
-        <v>0.00286481375502025</v>
+        <v>0.00286608590823643</v>
       </c>
       <c r="C37" t="n">
         <v>0.00277654683100888</v>
@@ -2159,7 +2159,7 @@
         <v>50</v>
       </c>
       <c r="B38" t="n">
-        <v>0.00285237594687906</v>
+        <v>0.0028536425769447</v>
       </c>
       <c r="C38" t="n">
         <v>0.00259401930324773</v>
@@ -2203,7 +2203,7 @@
         <v>51</v>
       </c>
       <c r="B39" t="n">
-        <v>0.00240078974514208</v>
+        <v>0.00240349521758976</v>
       </c>
       <c r="C39" t="n">
         <v>0.00145067837738334</v>
@@ -2233,7 +2233,7 @@
         <v>0.0026224855834855</v>
       </c>
       <c r="L39" t="n">
-        <v>0.00302533195265854</v>
+        <v>0.00311681844657685</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -2247,7 +2247,7 @@
         <v>52</v>
       </c>
       <c r="B40" t="n">
-        <v>0.00194070496745321</v>
+        <v>0.0019415667596244</v>
       </c>
       <c r="C40" t="n">
         <v>0.00267480522315377</v>
@@ -2291,7 +2291,7 @@
         <v>53</v>
       </c>
       <c r="B41" t="n">
-        <v>0.00134292297418365</v>
+        <v>0.00134351931444406</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>54</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0010999323077837</v>
+        <v>0.0011004207452678</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -2379,7 +2379,7 @@
         <v>55</v>
       </c>
       <c r="B43" t="n">
-        <v>0.00094861135266742</v>
+        <v>0.000949032594355849</v>
       </c>
       <c r="C43" t="n">
         <v>0.00140525180390361</v>
@@ -2423,7 +2423,7 @@
         <v>56</v>
       </c>
       <c r="B44" t="n">
-        <v>0.000560788456998816</v>
+        <v>0.000561037481507972</v>
       </c>
       <c r="C44" t="n">
         <v>0.00085047085081401</v>
@@ -2467,10 +2467,10 @@
         <v>57</v>
       </c>
       <c r="B45" t="n">
-        <v>0.000544452771078309</v>
+        <v>0.000544694541539852</v>
       </c>
       <c r="C45" t="n">
-        <v>0.000806337501950034</v>
+        <v>0.000806337501950033</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -2511,7 +2511,7 @@
         <v>58</v>
       </c>
       <c r="B46" t="n">
-        <v>0.000349858872583667</v>
+        <v>0.000350014231405575</v>
       </c>
       <c r="C46" t="n">
         <v>0.000945197143972394</v>
